--- a/results/results_paper.xlsx
+++ b/results/results_paper.xlsx
@@ -436,22 +436,22 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>0.0233531189527876</v>
+        <v>0.02506031426853527</v>
       </c>
       <c r="C2">
-        <v>0.04179750503540088</v>
+        <v>0.04162336788225456</v>
       </c>
       <c r="D2">
-        <v>0.2614844381772631</v>
+        <v>0.2714621829797487</v>
       </c>
       <c r="E2">
-        <v>5.756823010727301</v>
+        <v>4.403402523813782</v>
       </c>
       <c r="F2">
-        <v>0.4769230769230769</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="G2">
-        <v>0.5587204052731953</v>
+        <v>0.6020731993486603</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -459,22 +459,22 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>-0.01129231298892006</v>
+        <v>0.008870261475906659</v>
       </c>
       <c r="C3">
-        <v>0.04749782018475714</v>
+        <v>0.04542536322482849</v>
       </c>
       <c r="D3">
-        <v>-0.3993731776943185</v>
+        <v>-0.07180996269559219</v>
       </c>
       <c r="E3">
-        <v>2.829851319573879</v>
+        <v>1.334495784156418</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>-0.2377438152950007</v>
+        <v>0.1952711182958328</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -482,22 +482,22 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>-0.08732019811152839</v>
+        <v>-0.08754398248850193</v>
       </c>
       <c r="C4">
-        <v>0.03866692242409155</v>
+        <v>0.03865891212744371</v>
       </c>
       <c r="D4">
-        <v>-0.1769017812820731</v>
+        <v>-0.169526280017748</v>
       </c>
       <c r="E4">
-        <v>1.657559531321788</v>
+        <v>1.637400884198889</v>
       </c>
       <c r="F4">
         <v>0.4616858237547893</v>
       </c>
       <c r="G4">
-        <v>-2.258266048531528</v>
+        <v>-2.26452265909353</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -505,22 +505,22 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.03869131598489334</v>
+        <v>0.04094073259228662</v>
       </c>
       <c r="C5">
-        <v>0.04092230695824021</v>
+        <v>0.04083452431824793</v>
       </c>
       <c r="D5">
-        <v>0.1840005078525948</v>
+        <v>0.1743702430551015</v>
       </c>
       <c r="E5">
-        <v>1.922757720254711</v>
+        <v>1.993895644108878</v>
       </c>
       <c r="F5">
         <v>0.5057471264367817</v>
       </c>
       <c r="G5">
-        <v>0.9454822775357333</v>
+        <v>1.002600943094401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -528,22 +528,22 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.08695049707030526</v>
+        <v>0.08079122687395923</v>
       </c>
       <c r="C6">
-        <v>0.03986103820234253</v>
+        <v>0.03975958122369486</v>
       </c>
       <c r="D6">
-        <v>0.2707321761993119</v>
+        <v>0.299601429995382</v>
       </c>
       <c r="E6">
-        <v>2.026243546660943</v>
+        <v>1.999387895738568</v>
       </c>
       <c r="F6">
-        <v>0.5133587786259542</v>
+        <v>0.5095419847328244</v>
       </c>
       <c r="G6">
-        <v>2.181340501693089</v>
+        <v>2.03199390907597</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -551,22 +551,22 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.02926665854684556</v>
+        <v>0.0286038957815416</v>
       </c>
       <c r="C7">
-        <v>0.03540075868680398</v>
+        <v>0.03509082412832303</v>
       </c>
       <c r="D7">
-        <v>-0.0864934565479393</v>
+        <v>0.06457292315727725</v>
       </c>
       <c r="E7">
-        <v>1.25212972683745</v>
+        <v>1.807535276863027</v>
       </c>
       <c r="F7">
         <v>0.4942307692307693</v>
       </c>
       <c r="G7">
-        <v>0.8267240486502631</v>
+        <v>0.815138900042373</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -574,22 +574,22 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.1272028040000188</v>
+        <v>0.1230061831997163</v>
       </c>
       <c r="C8">
-        <v>0.03196735147531906</v>
+        <v>0.03174625175675101</v>
       </c>
       <c r="D8">
-        <v>0.5956001821380317</v>
+        <v>0.6075208841029006</v>
       </c>
       <c r="E8">
-        <v>0.7774707928422058</v>
+        <v>0.8805859221353396</v>
       </c>
       <c r="F8">
         <v>0.5365384615384615</v>
       </c>
       <c r="G8">
-        <v>3.979147415394358</v>
+        <v>3.874667918034084</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -597,22 +597,22 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>-0.00567925325140599</v>
+        <v>-0.005374342022036561</v>
       </c>
       <c r="C9">
-        <v>0.03482889498058036</v>
+        <v>0.03471367830826464</v>
       </c>
       <c r="D9">
-        <v>-0.1312697817348642</v>
+        <v>-0.1008127673861534</v>
       </c>
       <c r="E9">
-        <v>3.004119880583024</v>
+        <v>2.996531579563894</v>
       </c>
       <c r="F9">
-        <v>0.4846743295019157</v>
+        <v>0.4885057471264368</v>
       </c>
       <c r="G9">
-        <v>-0.1630615399820347</v>
+        <v>-0.1548191457647125</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -620,22 +620,22 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.1415613924985687</v>
+        <v>0.1438211072857038</v>
       </c>
       <c r="C10">
-        <v>0.06821410399338923</v>
+        <v>0.06783010903819207</v>
       </c>
       <c r="D10">
-        <v>0.52895944695902</v>
+        <v>0.5746851886032645</v>
       </c>
       <c r="E10">
-        <v>4.649600004529458</v>
+        <v>4.864276934001535</v>
       </c>
       <c r="F10">
         <v>0.5305343511450382</v>
       </c>
       <c r="G10">
-        <v>2.075251072890845</v>
+        <v>2.12031366785397</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -643,22 +643,22 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>0.1554849981198738</v>
+        <v>0.1516033774364534</v>
       </c>
       <c r="C11">
-        <v>0.05575538518268441</v>
+        <v>0.05565211655079426</v>
       </c>
       <c r="D11">
-        <v>0.1852570263704383</v>
+        <v>0.1655091594097591</v>
       </c>
       <c r="E11">
-        <v>2.143535824041878</v>
+        <v>1.945192194844108</v>
       </c>
       <c r="F11">
-        <v>0.5517241379310345</v>
+        <v>0.5478927203065134</v>
       </c>
       <c r="G11">
-        <v>2.78869920116993</v>
+        <v>2.724125996143981</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -666,22 +666,22 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.05814639430197485</v>
+        <v>0.05647647389240934</v>
       </c>
       <c r="C12">
-        <v>0.04660126222156488</v>
+        <v>0.04670198097917544</v>
       </c>
       <c r="D12">
-        <v>-0.1013998704136722</v>
+        <v>-0.1124482780995208</v>
       </c>
       <c r="E12">
-        <v>1.730574626851159</v>
+        <v>1.756910192959561</v>
       </c>
       <c r="F12">
-        <v>0.5076628352490421</v>
+        <v>0.5038314176245211</v>
       </c>
       <c r="G12">
-        <v>1.247742905020873</v>
+        <v>1.209295038632138</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -689,22 +689,22 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>-0.03101800657459454</v>
+        <v>-0.02925247701153365</v>
       </c>
       <c r="C13">
-        <v>0.05227496504543896</v>
+        <v>0.05246120676536212</v>
       </c>
       <c r="D13">
-        <v>0.04165573498927772</v>
+        <v>0.04157099546122769</v>
       </c>
       <c r="E13">
-        <v>3.263138305872736</v>
+        <v>3.199197963880068</v>
       </c>
       <c r="F13">
-        <v>0.4923076923076923</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="G13">
-        <v>-0.593362550269192</v>
+        <v>-0.5576020609355826</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -712,22 +712,22 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.0009189961829158899</v>
+        <v>0.002087674544376287</v>
       </c>
       <c r="C14">
-        <v>0.03540682508118</v>
+        <v>0.03538991010461196</v>
       </c>
       <c r="D14">
-        <v>0.4362120651999126</v>
+        <v>0.4329741083228693</v>
       </c>
       <c r="E14">
-        <v>2.198870223412107</v>
+        <v>2.20000907540505</v>
       </c>
       <c r="F14">
         <v>0.4674329501915709</v>
       </c>
       <c r="G14">
-        <v>0.02595533998907937</v>
+        <v>0.0589906710190887</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -735,22 +735,22 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>-0.02247067750776723</v>
+        <v>-0.02300267672389245</v>
       </c>
       <c r="C15">
-        <v>0.03654269642352348</v>
+        <v>0.03641207323321589</v>
       </c>
       <c r="D15">
-        <v>-0.1869779445876151</v>
+        <v>-0.1838426685881925</v>
       </c>
       <c r="E15">
-        <v>1.838655789088216</v>
+        <v>1.862529624844856</v>
       </c>
       <c r="F15">
         <v>0.4578544061302682</v>
       </c>
       <c r="G15">
-        <v>-0.614915693339539</v>
+        <v>-0.6317321339151023</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -758,22 +758,22 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.01519742874623498</v>
+        <v>0.01475848275297491</v>
       </c>
       <c r="C16">
-        <v>0.03158951876754883</v>
+        <v>0.03131259543721213</v>
       </c>
       <c r="D16">
-        <v>-0.3505720105464523</v>
+        <v>-0.3562698328855044</v>
       </c>
       <c r="E16">
-        <v>3.756356805908471</v>
+        <v>3.843533141664812</v>
       </c>
       <c r="F16">
         <v>0.4808429118773946</v>
       </c>
       <c r="G16">
-        <v>0.4810908598533936</v>
+        <v>0.4713273539578843</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -781,22 +781,22 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>-0.009812347535086016</v>
+        <v>-0.008907258525256805</v>
       </c>
       <c r="C17">
-        <v>0.05341746116781697</v>
+        <v>0.05306911245428277</v>
       </c>
       <c r="D17">
-        <v>0.3927963411298557</v>
+        <v>0.390335877712361</v>
       </c>
       <c r="E17">
-        <v>9.705875533862654</v>
+        <v>10.00705908197357</v>
       </c>
       <c r="F17">
-        <v>0.4636015325670498</v>
+        <v>0.4693486590038314</v>
       </c>
       <c r="G17">
-        <v>-0.1836917614683974</v>
+        <v>-0.167842613402101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -804,22 +804,22 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>-0.02913034951171456</v>
+        <v>-0.03167548124419013</v>
       </c>
       <c r="C18">
-        <v>0.03956550547488624</v>
+        <v>0.03944591573404452</v>
       </c>
       <c r="D18">
-        <v>-0.5497791134948311</v>
+        <v>-0.5497124817896342</v>
       </c>
       <c r="E18">
-        <v>7.055335622453935</v>
+        <v>7.171446094792307</v>
       </c>
       <c r="F18">
-        <v>0.4731800766283525</v>
+        <v>0.475095785440613</v>
       </c>
       <c r="G18">
-        <v>-0.73625622021194</v>
+        <v>-0.8030104170417833</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -827,22 +827,22 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>-0.08462388043487994</v>
+        <v>-0.08497790361771815</v>
       </c>
       <c r="C19">
-        <v>0.02881450464648126</v>
+        <v>0.02874125624004365</v>
       </c>
       <c r="D19">
-        <v>-0.393770134168503</v>
+        <v>-0.3950625093059677</v>
       </c>
       <c r="E19">
-        <v>1.447238530986032</v>
+        <v>1.494812390116832</v>
       </c>
       <c r="F19">
         <v>0.4865384615384615</v>
       </c>
       <c r="G19">
-        <v>-2.93685008550768</v>
+        <v>-2.956652378309164</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -850,22 +850,22 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>-0.06272751523596581</v>
+        <v>-0.06185384607649374</v>
       </c>
       <c r="C20">
-        <v>0.02910743508379229</v>
+        <v>0.02908910088809453</v>
       </c>
       <c r="D20">
-        <v>-0.1931708846887939</v>
+        <v>-0.1363068391686473</v>
       </c>
       <c r="E20">
-        <v>1.997602945548656</v>
+        <v>2.00774893128929</v>
       </c>
       <c r="F20">
         <v>0.4731800766283525</v>
       </c>
       <c r="G20">
-        <v>-2.155034102296907</v>
+        <v>-2.126358126861495</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -873,22 +873,22 @@
         <v>2019</v>
       </c>
       <c r="B21">
-        <v>-0.05078110515102099</v>
+        <v>-0.05220012419000791</v>
       </c>
       <c r="C21">
-        <v>0.02483804351350577</v>
+        <v>0.02486500908203365</v>
       </c>
       <c r="D21">
-        <v>-0.4975104390685548</v>
+        <v>-0.5004106419470395</v>
       </c>
       <c r="E21">
-        <v>3.549168891952919</v>
+        <v>3.537761211155841</v>
       </c>
       <c r="F21">
-        <v>0.4693486590038314</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="G21">
-        <v>-2.044488935829772</v>
+        <v>-2.099340644428938</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -896,22 +896,22 @@
         <v>2020</v>
       </c>
       <c r="B22">
-        <v>-0.02977270135562415</v>
+        <v>-0.03265102761337185</v>
       </c>
       <c r="C22">
-        <v>0.04822491818460318</v>
+        <v>0.04802617282325203</v>
       </c>
       <c r="D22">
-        <v>4.116426126977431</v>
+        <v>4.163439480250193</v>
       </c>
       <c r="E22">
-        <v>59.55176583167755</v>
+        <v>60.61883683153579</v>
       </c>
       <c r="F22">
-        <v>0.4790076335877863</v>
+        <v>0.4809160305343512</v>
       </c>
       <c r="G22">
-        <v>-0.617371733875325</v>
+        <v>-0.679859037144924</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -919,22 +919,22 @@
         <v>2021</v>
       </c>
       <c r="B23">
-        <v>-0.08680729914163415</v>
+        <v>-0.08727794441871578</v>
       </c>
       <c r="C23">
-        <v>0.02790207932817889</v>
+        <v>0.02783342047912056</v>
       </c>
       <c r="D23">
-        <v>0.3307312119550975</v>
+        <v>0.3216712370004125</v>
       </c>
       <c r="E23">
-        <v>7.998350339749514</v>
+        <v>8.088664732779609</v>
       </c>
       <c r="F23">
-        <v>0.4329501915708812</v>
+        <v>0.4348659003831418</v>
       </c>
       <c r="G23">
-        <v>-3.111140862321528</v>
+        <v>-3.135724712102415</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -942,22 +942,22 @@
         <v>2022</v>
       </c>
       <c r="B24">
-        <v>-0.00537257840869209</v>
+        <v>0.04841529666704467</v>
       </c>
       <c r="C24">
-        <v>0.05107047657302625</v>
+        <v>0.04674009655484843</v>
       </c>
       <c r="D24">
-        <v>-0.4060233990074849</v>
+        <v>-0.4365161326886347</v>
       </c>
       <c r="E24">
-        <v>1.94667290055005</v>
+        <v>2.44107332859968</v>
       </c>
       <c r="F24">
-        <v>0.5096153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G24">
-        <v>-0.1051993004414161</v>
+        <v>1.035840749927216</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -965,22 +965,22 @@
         <v>2023</v>
       </c>
       <c r="B25">
-        <v>-0.04793219355764326</v>
+        <v>-0.04446918231777454</v>
       </c>
       <c r="C25">
-        <v>0.0429195073188194</v>
+        <v>0.03907308429233453</v>
       </c>
       <c r="D25">
-        <v>0.1454788759937728</v>
+        <v>-0.01567427429565834</v>
       </c>
       <c r="E25">
-        <v>2.123835982788286</v>
+        <v>2.168010910828995</v>
       </c>
       <c r="F25">
-        <v>0.4780701754385965</v>
+        <v>0.4671052631578947</v>
       </c>
       <c r="G25">
-        <v>-1.116792725545242</v>
+        <v>-1.138102689438792</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -988,22 +988,22 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>0.004668049401580899</v>
+        <v>0.007302032521725607</v>
       </c>
       <c r="C26">
-        <v>0.04096613691474899</v>
+        <v>0.04043731931776778</v>
       </c>
       <c r="D26">
-        <v>0.3978948589586351</v>
+        <v>0.4459372094683385</v>
       </c>
       <c r="E26">
-        <v>9.321428860532299</v>
+        <v>9.579566035002962</v>
       </c>
       <c r="F26">
-        <v>0.4886254101009369</v>
+        <v>0.4896903583005621</v>
       </c>
       <c r="G26">
-        <v>-0.07350088947686423</v>
+        <v>-0.02391363137553909</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1011,22 +1011,22 @@
         <v>8</v>
       </c>
       <c r="B27">
-        <v>0.04377895071240157</v>
+        <v>0.04475023094037001</v>
       </c>
       <c r="C27">
-        <v>0.04448235953255109</v>
+        <v>0.04420815969194435</v>
       </c>
       <c r="D27">
-        <v>0.2143251386524707</v>
+        <v>0.2664366897766371</v>
       </c>
       <c r="E27">
-        <v>4.664607526838367</v>
+        <v>4.531388379332107</v>
       </c>
       <c r="F27">
-        <v>0.5046156152203797</v>
+        <v>0.5041385206708316</v>
       </c>
       <c r="G27">
-        <v>0.9458894894625441</v>
+        <v>0.9665447353939655</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1034,22 +1034,22 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>-0.02237034218868432</v>
+        <v>-0.02283619671024583</v>
       </c>
       <c r="C28">
-        <v>0.0387621032373038</v>
+        <v>0.0386831212492117</v>
       </c>
       <c r="D28">
-        <v>0.680325549411795</v>
+        <v>0.6824689356061671</v>
       </c>
       <c r="E28">
-        <v>17.302228930245</v>
+        <v>17.46086898200264</v>
       </c>
       <c r="F28">
-        <v>0.477359748700891</v>
+        <v>0.4778808801972792</v>
       </c>
       <c r="G28">
-        <v>-0.7388347252668551</v>
+        <v>-0.7529803953118162</v>
       </c>
     </row>
   </sheetData>
@@ -1093,22 +1093,22 @@
         <v>2000</v>
       </c>
       <c r="B2">
-        <v>0.005612304485992274</v>
+        <v>0.05019358339575328</v>
       </c>
       <c r="C2">
-        <v>0.04127037478508652</v>
+        <v>0.03717964958508754</v>
       </c>
       <c r="D2">
-        <v>0.7104765513036673</v>
+        <v>0.3445256935673228</v>
       </c>
       <c r="E2">
-        <v>4.601702171364904</v>
+        <v>2.915265784407104</v>
       </c>
       <c r="F2">
-        <v>0.4461538461538462</v>
+        <v>0.4692307692307692</v>
       </c>
       <c r="G2">
-        <v>0.1359886968610796</v>
+        <v>1.350028414896238</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1116,22 +1116,22 @@
         <v>2001</v>
       </c>
       <c r="B3">
-        <v>0.03448744671840348</v>
+        <v>0.04040819016534571</v>
       </c>
       <c r="C3">
-        <v>0.04762299198383705</v>
+        <v>0.04375696614138117</v>
       </c>
       <c r="D3">
-        <v>-0.3554200725733666</v>
+        <v>-0.1371341867126807</v>
       </c>
       <c r="E3">
-        <v>2.158516959661499</v>
+        <v>2.048091531467116</v>
       </c>
       <c r="F3">
-        <v>0.5363984674329502</v>
+        <v>0.524904214559387</v>
       </c>
       <c r="G3">
-        <v>0.7241763963530118</v>
+        <v>0.9234687348931968</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1139,22 +1139,22 @@
         <v>2002</v>
       </c>
       <c r="B4">
-        <v>-0.01258328886044013</v>
+        <v>-0.03705599177311256</v>
       </c>
       <c r="C4">
-        <v>0.04058562724445464</v>
+        <v>0.036342238346273</v>
       </c>
       <c r="D4">
-        <v>0.4012954384902062</v>
+        <v>0.1349761585168683</v>
       </c>
       <c r="E4">
-        <v>2.265842671213876</v>
+        <v>0.8366860297386718</v>
       </c>
       <c r="F4">
-        <v>0.4942528735632184</v>
+        <v>0.5019157088122606</v>
       </c>
       <c r="G4">
-        <v>-0.310042981093989</v>
+        <v>-1.019639776175557</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1162,22 +1162,22 @@
         <v>2003</v>
       </c>
       <c r="B5">
-        <v>0.04126179519255801</v>
+        <v>0.05619585040544439</v>
       </c>
       <c r="C5">
-        <v>0.03835695149601539</v>
+        <v>0.03762163081312876</v>
       </c>
       <c r="D5">
-        <v>-0.1929907256426893</v>
+        <v>-0.1466861739208896</v>
       </c>
       <c r="E5">
-        <v>1.868590463017807</v>
+        <v>1.86464247907399</v>
       </c>
       <c r="F5">
-        <v>0.5459770114942529</v>
+        <v>0.5574712643678161</v>
       </c>
       <c r="G5">
-        <v>1.075731870840788</v>
+        <v>1.493711176014034</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1185,22 +1185,22 @@
         <v>2004</v>
       </c>
       <c r="B6">
-        <v>0.06391331175262518</v>
+        <v>0.0807242081078213</v>
       </c>
       <c r="C6">
-        <v>0.03654119686386532</v>
+        <v>0.03555345833442083</v>
       </c>
       <c r="D6">
-        <v>0.3047177886367908</v>
+        <v>0.361361666214628</v>
       </c>
       <c r="E6">
-        <v>2.767259936171033</v>
+        <v>3.242919747291254</v>
       </c>
       <c r="F6">
-        <v>0.5381679389312977</v>
+        <v>0.5343511450381679</v>
       </c>
       <c r="G6">
-        <v>1.749075488433918</v>
+        <v>2.270502277120781</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1208,22 +1208,22 @@
         <v>2005</v>
       </c>
       <c r="B7">
-        <v>0.1290298068607671</v>
+        <v>0.1239096727602013</v>
       </c>
       <c r="C7">
-        <v>0.03674397033188394</v>
+        <v>0.03454385373227351</v>
       </c>
       <c r="D7">
-        <v>0.2406001104090315</v>
+        <v>0.1666887813654607</v>
       </c>
       <c r="E7">
-        <v>2.20226251350538</v>
+        <v>2.06885583149303</v>
       </c>
       <c r="F7">
-        <v>0.5634615384615385</v>
+        <v>0.5653846153846154</v>
       </c>
       <c r="G7">
-        <v>3.511591308596386</v>
+        <v>3.587025168660769</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1231,22 +1231,22 @@
         <v>2006</v>
       </c>
       <c r="B8">
-        <v>0.05586383899326438</v>
+        <v>0.05077778116214275</v>
       </c>
       <c r="C8">
-        <v>0.03708085594421853</v>
+        <v>0.0351102167128242</v>
       </c>
       <c r="D8">
-        <v>0.3979503616978341</v>
+        <v>0.2434482079405667</v>
       </c>
       <c r="E8">
-        <v>2.45779045433397</v>
+        <v>2.586544629235878</v>
       </c>
       <c r="F8">
-        <v>0.5173076923076924</v>
+        <v>0.5211538461538462</v>
       </c>
       <c r="G8">
-        <v>1.506541248058067</v>
+        <v>1.446239468627258</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1254,22 +1254,22 @@
         <v>2007</v>
       </c>
       <c r="B9">
-        <v>0.04228844462118217</v>
+        <v>0.02878636326606131</v>
       </c>
       <c r="C9">
-        <v>0.03728409916118256</v>
+        <v>0.03594405131532796</v>
       </c>
       <c r="D9">
-        <v>-0.7191935753354867</v>
+        <v>-0.7978190797000789</v>
       </c>
       <c r="E9">
-        <v>6.119469649921424</v>
+        <v>6.356769326168571</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.5210727969348659</v>
       </c>
       <c r="G9">
-        <v>1.134221975925055</v>
+        <v>0.8008658515848953</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1277,22 +1277,22 @@
         <v>2008</v>
       </c>
       <c r="B10">
-        <v>0.1515667990216347</v>
+        <v>0.1710627789061857</v>
       </c>
       <c r="C10">
-        <v>0.07483518173738415</v>
+        <v>0.07355511604700622</v>
       </c>
       <c r="D10">
-        <v>0.1979011451740766</v>
+        <v>0.1686588880107101</v>
       </c>
       <c r="E10">
-        <v>6.259225566421438</v>
+        <v>6.721963945186217</v>
       </c>
       <c r="F10">
-        <v>0.5305343511450382</v>
+        <v>0.5438931297709924</v>
       </c>
       <c r="G10">
-        <v>2.025341497178713</v>
+        <v>2.325640799708155</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1300,22 +1300,22 @@
         <v>2009</v>
       </c>
       <c r="B11">
-        <v>0.06458373983800819</v>
+        <v>0.06025329505989262</v>
       </c>
       <c r="C11">
-        <v>0.05527145120643564</v>
+        <v>0.05319832500056618</v>
       </c>
       <c r="D11">
-        <v>-0.06228389367883751</v>
+        <v>-0.05514386909538894</v>
       </c>
       <c r="E11">
-        <v>2.329260924344131</v>
+        <v>2.122551033698245</v>
       </c>
       <c r="F11">
-        <v>0.5440613026819924</v>
+        <v>0.5363984674329502</v>
       </c>
       <c r="G11">
-        <v>1.168482795879408</v>
+        <v>1.132616394581058</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1323,22 +1323,22 @@
         <v>2010</v>
       </c>
       <c r="B12">
-        <v>0.06110939670855692</v>
+        <v>0.05592895979950947</v>
       </c>
       <c r="C12">
-        <v>0.0498869453260456</v>
+        <v>0.05033690042950573</v>
       </c>
       <c r="D12">
-        <v>0.3532996070797116</v>
+        <v>0.3819184776509594</v>
       </c>
       <c r="E12">
-        <v>3.500959575357951</v>
+        <v>3.356043136082306</v>
       </c>
       <c r="F12">
-        <v>0.5134099616858238</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="G12">
-        <v>1.224957677988998</v>
+        <v>1.111092644209096</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1346,22 +1346,22 @@
         <v>2011</v>
       </c>
       <c r="B13">
-        <v>0.008102062022858802</v>
+        <v>0.01594243375195852</v>
       </c>
       <c r="C13">
-        <v>0.05304024719357351</v>
+        <v>0.05354631821749353</v>
       </c>
       <c r="D13">
-        <v>0.3156804453675461</v>
+        <v>0.2566527992912192</v>
       </c>
       <c r="E13">
-        <v>3.888497861204922</v>
+        <v>3.702096864660406</v>
       </c>
       <c r="F13">
-        <v>0.5038461538461538</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="G13">
-        <v>0.1527530969697379</v>
+        <v>0.2977316514499431</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1369,22 +1369,22 @@
         <v>2012</v>
       </c>
       <c r="B14">
-        <v>0.004149236139594418</v>
+        <v>0.006672295785841303</v>
       </c>
       <c r="C14">
-        <v>0.03409229000002215</v>
+        <v>0.03413347901121191</v>
       </c>
       <c r="D14">
-        <v>0.2406324198077017</v>
+        <v>0.2291453416153403</v>
       </c>
       <c r="E14">
-        <v>1.879459332769869</v>
+        <v>1.832853594952265</v>
       </c>
       <c r="F14">
-        <v>0.4980842911877394</v>
+        <v>0.496168582375479</v>
       </c>
       <c r="G14">
-        <v>0.1217059968571112</v>
+        <v>0.195476581325028</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1392,22 +1392,22 @@
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>-0.0218525750703375</v>
+        <v>-0.02356394282831526</v>
       </c>
       <c r="C15">
-        <v>0.03796375042621042</v>
+        <v>0.03713299363799161</v>
       </c>
       <c r="D15">
-        <v>-0.1179517862192187</v>
+        <v>-0.08305834673049077</v>
       </c>
       <c r="E15">
-        <v>2.40948999450971</v>
+        <v>2.410212037493567</v>
       </c>
       <c r="F15">
-        <v>0.4885057471264368</v>
+        <v>0.4865900383141762</v>
       </c>
       <c r="G15">
-        <v>-0.5756168667479792</v>
+        <v>-0.6345823624682513</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1415,22 +1415,22 @@
         <v>2014</v>
       </c>
       <c r="B16">
-        <v>0.02563363301871187</v>
+        <v>0.03328088090598475</v>
       </c>
       <c r="C16">
-        <v>0.03301829632970534</v>
+        <v>0.03035355493075166</v>
       </c>
       <c r="D16">
-        <v>0.2916791989242272</v>
+        <v>0.4959991199810585</v>
       </c>
       <c r="E16">
-        <v>4.240079012409405</v>
+        <v>5.045769884404045</v>
       </c>
       <c r="F16">
-        <v>0.5344827586206896</v>
+        <v>0.524904214559387</v>
       </c>
       <c r="G16">
-        <v>0.7763463251630656</v>
+        <v>1.09644095994395</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1438,22 +1438,22 @@
         <v>2015</v>
       </c>
       <c r="B17">
-        <v>-0.002792108615560621</v>
+        <v>-0.02901280028866075</v>
       </c>
       <c r="C17">
-        <v>0.06232352970125705</v>
+        <v>0.06008837740125129</v>
       </c>
       <c r="D17">
-        <v>0.01848203094589711</v>
+        <v>-0.2784507443514199</v>
       </c>
       <c r="E17">
-        <v>3.098828465243916</v>
+        <v>3.731705663386355</v>
       </c>
       <c r="F17">
-        <v>0.5076628352490421</v>
+        <v>0.4980842911877394</v>
       </c>
       <c r="G17">
-        <v>-0.04480023241533936</v>
+        <v>-0.4828354757347231</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1461,22 +1461,22 @@
         <v>2016</v>
       </c>
       <c r="B18">
-        <v>-0.01606393210089223</v>
+        <v>-0.0179951022512914</v>
       </c>
       <c r="C18">
-        <v>0.04513687052271223</v>
+        <v>0.0427175646180441</v>
       </c>
       <c r="D18">
-        <v>-1.124679274515925</v>
+        <v>-0.9845829316030925</v>
       </c>
       <c r="E18">
-        <v>10.01001275083629</v>
+        <v>7.936199901174389</v>
       </c>
       <c r="F18">
-        <v>0.4942528735632184</v>
+        <v>0.496168582375479</v>
       </c>
       <c r="G18">
-        <v>-0.3558937940283008</v>
+        <v>-0.4212576819908451</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1484,22 +1484,22 @@
         <v>2017</v>
       </c>
       <c r="B19">
-        <v>-0.02428945879790338</v>
+        <v>-0.02428568619708371</v>
       </c>
       <c r="C19">
-        <v>0.03250727488482477</v>
+        <v>0.03109234731293615</v>
       </c>
       <c r="D19">
-        <v>-0.3911976078253095</v>
+        <v>-0.4329842801572708</v>
       </c>
       <c r="E19">
-        <v>2.244419482205353</v>
+        <v>2.239043153927757</v>
       </c>
       <c r="F19">
         <v>0.4980769230769231</v>
       </c>
       <c r="G19">
-        <v>-0.7472007076558215</v>
+        <v>-0.7810824301122969</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1507,22 +1507,22 @@
         <v>2018</v>
       </c>
       <c r="B20">
-        <v>-0.01538803070804994</v>
+        <v>-0.01178254254252239</v>
       </c>
       <c r="C20">
-        <v>0.03116610442794246</v>
+        <v>0.02940275966085351</v>
       </c>
       <c r="D20">
-        <v>-0.2891816058637653</v>
+        <v>-0.09961327450206475</v>
       </c>
       <c r="E20">
-        <v>3.616013923301261</v>
+        <v>2.077722233070189</v>
       </c>
       <c r="F20">
-        <v>0.4904214559386973</v>
+        <v>0.4980842911877394</v>
       </c>
       <c r="G20">
-        <v>-0.4937425125949832</v>
+        <v>-0.4007291382995429</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1530,22 +1530,22 @@
         <v>2019</v>
       </c>
       <c r="B21">
-        <v>-0.0314944052164753</v>
+        <v>-0.03323189913583258</v>
       </c>
       <c r="C21">
-        <v>0.0234560593758257</v>
+        <v>0.02333466959567452</v>
       </c>
       <c r="D21">
-        <v>-0.3420145236258024</v>
+        <v>-0.3160554832928313</v>
       </c>
       <c r="E21">
-        <v>4.919235143342394</v>
+        <v>5.028805798146768</v>
       </c>
       <c r="F21">
-        <v>0.4942528735632184</v>
+        <v>0.4980842911877394</v>
       </c>
       <c r="G21">
-        <v>-1.342698051358707</v>
+        <v>-1.424142690325158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1553,22 +1553,22 @@
         <v>2020</v>
       </c>
       <c r="B22">
-        <v>-0.04261428461705934</v>
+        <v>-0.04941379427552556</v>
       </c>
       <c r="C22">
-        <v>0.04584773945711937</v>
+        <v>0.04592686691114087</v>
       </c>
       <c r="D22">
-        <v>0.4285889548598854</v>
+        <v>0.4585927158900027</v>
       </c>
       <c r="E22">
-        <v>6.840196317965154</v>
+        <v>6.825433440661521</v>
       </c>
       <c r="F22">
-        <v>0.4732824427480916</v>
+        <v>0.4637404580152672</v>
       </c>
       <c r="G22">
-        <v>-0.9294740617891484</v>
+        <v>-1.075923475710442</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1576,22 +1576,22 @@
         <v>2021</v>
       </c>
       <c r="B23">
-        <v>-0.01098998233063203</v>
+        <v>-0.009079365611164385</v>
       </c>
       <c r="C23">
-        <v>0.02906843593844848</v>
+        <v>0.02900853534129814</v>
       </c>
       <c r="D23">
-        <v>-0.230336282139796</v>
+        <v>-0.2312530473623633</v>
       </c>
       <c r="E23">
-        <v>3.972597580316057</v>
+        <v>4.014141755767429</v>
       </c>
       <c r="F23">
         <v>0.5019157088122606</v>
       </c>
       <c r="G23">
-        <v>-0.3780727093092653</v>
+        <v>-0.3129894530813661</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1599,22 +1599,22 @@
         <v>2022</v>
       </c>
       <c r="B24">
-        <v>0.05915001871566836</v>
+        <v>0.04998161894026464</v>
       </c>
       <c r="C24">
-        <v>0.05014397172610981</v>
+        <v>0.0452993363036313</v>
       </c>
       <c r="D24">
-        <v>-0.9558699257748788</v>
+        <v>-0.2436174530471208</v>
       </c>
       <c r="E24">
-        <v>6.709234061347866</v>
+        <v>4.306802339847091</v>
       </c>
       <c r="F24">
-        <v>0.5192307692307693</v>
+        <v>0.5038461538461538</v>
       </c>
       <c r="G24">
-        <v>1.17960378245964</v>
+        <v>1.103363161995334</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1622,22 +1622,22 @@
         <v>2023</v>
       </c>
       <c r="B25">
-        <v>0.02402859018869511</v>
+        <v>0.01823236943810264</v>
       </c>
       <c r="C25">
-        <v>0.03586709448060102</v>
+        <v>0.03236707248796155</v>
       </c>
       <c r="D25">
-        <v>0.06520240776982021</v>
+        <v>-0.06686327566204525</v>
       </c>
       <c r="E25">
-        <v>2.293133895251112</v>
+        <v>2.978917181208833</v>
       </c>
       <c r="F25">
-        <v>0.4846491228070176</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.6699341147271114</v>
+        <v>0.5632999229350721</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1645,22 +1645,22 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>0.02469634824838211</v>
+        <v>0.02528871487279171</v>
       </c>
       <c r="C26">
-        <v>0.04204630460603174</v>
+        <v>0.04031442841200147</v>
       </c>
       <c r="D26">
-        <v>0.04305704107826645</v>
+        <v>0.05599623997902228</v>
       </c>
       <c r="E26">
-        <v>6.887740225180087</v>
+        <v>7.144143107511969</v>
       </c>
       <c r="F26">
-        <v>0.5090995391511629</v>
+        <v>0.5107000834865075</v>
       </c>
       <c r="G26">
-        <v>0.4991212648041065</v>
+        <v>0.5476800301686093</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1668,22 +1668,22 @@
         <v>8</v>
       </c>
       <c r="B27">
-        <v>0.05376963811295093</v>
+        <v>0.05809392708393365</v>
       </c>
       <c r="C27">
-        <v>0.04570999110616524</v>
+        <v>0.04389072705627405</v>
       </c>
       <c r="D27">
-        <v>0.1936231070096477</v>
+        <v>0.1758694767419365</v>
       </c>
       <c r="E27">
-        <v>6.416334363153602</v>
+        <v>6.958885567288302</v>
       </c>
       <c r="F27">
-        <v>0.519464261475317</v>
+        <v>0.5242615390614865</v>
       </c>
       <c r="G27">
-        <v>1.174901589332598</v>
+        <v>1.309940233797489</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1691,22 +1691,22 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>-0.005045497021505118</v>
+        <v>-0.007041927025085238</v>
       </c>
       <c r="C28">
-        <v>0.04076719160411259</v>
+        <v>0.03982416652062317</v>
       </c>
       <c r="D28">
-        <v>0.03120104289011047</v>
+        <v>-0.008278606878416297</v>
       </c>
       <c r="E28">
-        <v>6.429481293690741</v>
+        <v>6.408856404140059</v>
       </c>
       <c r="F28">
-        <v>0.4996616651460031</v>
+        <v>0.4977512893938268</v>
       </c>
       <c r="G28">
-        <v>-0.2012421026919425</v>
+        <v>-0.2290737652466585</v>
       </c>
     </row>
   </sheetData>
